--- a/aiurt-module-system/src/main/resources/templates/holidaysError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/holidaysError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,133 +14,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>节假日导入模板</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>填写须知：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请勿增加、删除、或修改表格中的字段顺序、字段名称；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-2.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-3.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>单次最多导入</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>条数据；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>字段说明：</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">
-1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日期：必填字段，格式为yyyy-MM-dd；</t>
-    </r>
+    <t>填写须知：
+1.请勿增加、删除、或修改表格中的字段顺序、字段名称；
+2.请严格按照数据规范填写，并填写完所有必填项，红底白字列为必填项；
+3.单次最多导入10000条数据；
+字段说明：
+1.开始日期：必填字段，格式为yyyy-MM-dd；
+2.结束日期：必填字段，格式为yyyy-MM-dd，节假日只有一天时结束日期与开始日期填入同样的日期；
+3.节假日名称：必填字段；
+4.类型：必填字段，值为调休、补班；</t>
   </si>
   <si>
-    <t>日期</t>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
   </si>
   <si>
     <t>节假日名称</t>
   </si>
   <si>
-    <t xml:space="preserve">{{$fe:maplist t.date
+    <t>类型</t>
+  </si>
+  <si>
+    <t>导入错误原因</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{{$fe:maplist t.startDateStr
 </t>
   </si>
   <si>
+    <t>t.endDateStr</t>
+  </si>
+  <si>
     <t>t.name</t>
+  </si>
+  <si>
+    <t>t.typeName</t>
   </si>
   <si>
     <t>t.mistake}}</t>
@@ -156,7 +71,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,12 +92,6 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -330,13 +239,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -351,12 +255,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -542,27 +440,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -671,10 +554,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -683,33 +566,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -719,101 +605,98 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -829,10 +712,7 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1183,53 +1063,74 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="2" width="15.625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="2"/>
+    <col min="1" max="5" width="15.625" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:2">
+    <row r="1" ht="14.25" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="125" customHeight="1" spans="1:2">
+    <row r="2" ht="125" customHeight="1" spans="1:5">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:3">
-      <c r="A4" s="1" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:5">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
